--- a/test/excel/example.xlsx
+++ b/test/excel/example.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\TweeRS\test\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B44CD0-59EA-40EB-996C-DFF403B9CECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -21,124 +30,149 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
-  <si>
-    <t xml:space="preserve">#save</t>
-  </si>
-  <si>
-    <t xml:space="preserve">window.init</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxHp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最大血量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxMp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最大蓝量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">window.items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#obj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags#4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags#5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags#6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">config</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">array&lt;int&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">治疗药水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可治疗他人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1,4,3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{key:1}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+  <si>
+    <t>#save</t>
+  </si>
+  <si>
+    <t>window.init</t>
+  </si>
+  <si>
+    <t>#var</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>maxHp</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>最大血量</t>
+  </si>
+  <si>
+    <t>maxMp</t>
+  </si>
+  <si>
+    <t>最大蓝量</t>
+  </si>
+  <si>
+    <t>window.items</t>
+  </si>
+  <si>
+    <t>#obj</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>tags#4</t>
+  </si>
+  <si>
+    <t>tags#5</t>
+  </si>
+  <si>
+    <t>tags#6</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>#type</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>array&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>治疗药水</t>
+  </si>
+  <si>
+    <t>可治疗他人</t>
+  </si>
+  <si>
+    <t>[1,4,3]</t>
+  </si>
+  <si>
+    <t>{key:1}</t>
+  </si>
+  <si>
+    <t>#save</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>片段1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>片段2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div&gt;片段1&lt;/div&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -146,6 +180,32 @@
       <name val="Source Han Sans CN"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,7 +217,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -165,111 +225,103 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -299,7 +351,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -323,7 +375,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -383,35 +435,34 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="42.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="9.14"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="42.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -436,28 +487,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -465,35 +516,28 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.71484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="20.71"/>
+    <col min="1" max="4" width="20.7109375" style="1"/>
+    <col min="5" max="5" width="34.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="20.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -530,7 +574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -553,8 +597,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="n">
+    <row r="4" spans="1:9">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -566,13 +610,13 @@
       <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="1">
         <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -580,12 +624,80 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.70069444444444495" right="0.70069444444444495" top="0.75208333333333299" bottom="0.75208333333333299" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3650D5E-0B33-40EE-B973-5F9CF6B22D45}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>